--- a/python_project/hora_apostas.xlsx
+++ b/python_project/hora_apostas.xlsx
@@ -424,77 +424,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>17:11:05</t>
+          <t>14:54:38</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17:11:17</t>
+          <t>14:54:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17:11:44</t>
+          <t>14:55:06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17:12:12</t>
+          <t>14:55:20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17:12:30</t>
+          <t>14:55:52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17:12:44</t>
+          <t>14:56:37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17:13:00</t>
+          <t>14:57:36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17:13:17</t>
+          <t>14:57:53</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17:13:48</t>
+          <t>14:58:19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17:14:11</t>
+          <t>14:58:43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17:14:36</t>
+          <t>14:59:01</t>
         </is>
       </c>
     </row>

--- a/python_project/hora_apostas.xlsx
+++ b/python_project/hora_apostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,77 +424,147 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>14:54:38</t>
+          <t>01:24:50</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14:54:52</t>
+          <t>01:25:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14:55:06</t>
+          <t>01:25:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14:55:20</t>
+          <t>01:25:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14:55:52</t>
+          <t>01:25:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:56:37</t>
+          <t>01:26:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14:57:36</t>
+          <t>01:26:48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14:57:53</t>
+          <t>01:27:10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14:58:19</t>
+          <t>01:27:24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14:58:43</t>
+          <t>01:28:24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14:59:01</t>
+          <t>01:28:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01:29:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01:29:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01:30:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01:30:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01:30:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01:31:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01:31:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01:31:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01:32:28</t>
         </is>
       </c>
     </row>

--- a/python_project/hora_apostas.xlsx
+++ b/python_project/hora_apostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,147 +424,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01:24:50</t>
+          <t>13:27:33</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01:25:03</t>
+          <t>13:27:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01:25:17</t>
+          <t>13:28:01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01:25:30</t>
+          <t>13:28:36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01:25:56</t>
+          <t>13:28:54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01:26:33</t>
+          <t>13:29:23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01:26:48</t>
+          <t>13:29:43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01:27:10</t>
+          <t>13:30:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:27:24</t>
+          <t>13:30:37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01:28:24</t>
+          <t>13:31:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01:28:53</t>
+          <t>13:32:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01:29:10</t>
+          <t>13:32:55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01:29:35</t>
+          <t>13:33:15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01:30:01</t>
+          <t>13:33:31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:30:36</t>
+          <t>13:33:50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01:30:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01:31:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01:31:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01:31:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01:32:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01:32:28</t>
+          <t>13:34:19</t>
         </is>
       </c>
     </row>
